--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6C635723-326C-41EA-AB3B-DD02E8C05CF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7DF4EA58-037A-4DAF-8394-4394B80BF70A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,7 +50,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>力量训练（分钟）</t>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量训练</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -198,32 +210,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,19 +521,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B23"/>
+      <selection activeCell="F9" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.5546875" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="8"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -531,245 +544,315 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>43202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>43202</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>43203</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>43204</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
         <v>7.5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>43203</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>43205</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>43204</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>43206</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>43205</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>43207</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>43206</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>43208</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>43207</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>43208</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7DF4EA58-037A-4DAF-8394-4394B80BF70A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7FE11757-AAF4-426D-8CEB-DE3BD19B7C28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>力量训练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F3:F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -733,30 +737,54 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="5">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="7">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7FE11757-AAF4-426D-8CEB-DE3BD19B7C28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3DB79491-0251-46BD-A1E5-C9EB200CA0EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -793,30 +793,54 @@
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="5">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="7">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3DB79491-0251-46BD-A1E5-C9EB200CA0EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{636767D7-3E38-4DC7-BC0B-E2A5CA016313}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -849,30 +849,54 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="7">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{636767D7-3E38-4DC7-BC0B-E2A5CA016313}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AFFF6670-E849-46E2-9DEA-27A83FB4F89F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
+    <sheet name="第二周" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -209,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -222,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,17 +542,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -563,7 +567,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>43202</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -583,7 +587,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -601,7 +605,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -619,7 +623,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>43203</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -639,7 +643,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -657,7 +661,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -675,7 +679,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>43204</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -695,7 +699,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +717,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -731,7 +735,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>43205</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -751,7 +755,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -769,7 +773,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -787,7 +791,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>43206</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -807,7 +811,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -825,7 +829,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -843,7 +847,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>43207</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -863,7 +867,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
@@ -881,7 +885,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
@@ -899,36 +903,60 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>43208</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="5">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -946,4 +974,288 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E131DC61-6525-46EA-9E5B-8F5F4F995C41}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>43209</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>43210</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>43211</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>43212</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>43213</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>43214</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>43215</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AFFF6670-E849-46E2-9DEA-27A83FB4F89F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,14 +70,26 @@
   </si>
   <si>
     <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +143,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -153,29 +183,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,32 +213,34 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -246,9 +278,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -341,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -518,29 +552,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="13"/>
       <c r="C1" s="10" t="s">
@@ -550,7 +584,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6" t="s">
@@ -566,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
       <c r="A3" s="8">
         <v>43202</v>
       </c>
@@ -586,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -604,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="20.5" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -622,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="8">
         <v>43203</v>
       </c>
@@ -642,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -660,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -678,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8">
         <v>43204</v>
       </c>
@@ -698,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
@@ -716,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -734,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8">
         <v>43205</v>
       </c>
@@ -754,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
@@ -772,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -790,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8">
         <v>43206</v>
       </c>
@@ -810,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
@@ -828,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -846,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="8">
         <v>43207</v>
       </c>
@@ -866,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
@@ -884,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -902,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="8">
         <v>43208</v>
       </c>
@@ -922,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>2</v>
@@ -940,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -972,27 +1006,32 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E131DC61-6525-46EA-9E5B-8F5F4F995C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="13"/>
       <c r="C1" s="10" t="s">
@@ -1002,7 +1041,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="13"/>
       <c r="C2" s="6" t="s">
@@ -1018,39 +1057,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
       <c r="A3" s="8">
         <v>43209</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
       <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.5" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="8">
         <v>43210</v>
       </c>
@@ -1062,7 +1125,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
@@ -1072,7 +1135,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -1082,7 +1145,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8">
         <v>43211</v>
       </c>
@@ -1094,7 +1157,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -1104,7 +1167,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
@@ -1114,7 +1177,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8">
         <v>43212</v>
       </c>
@@ -1126,7 +1189,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
@@ -1136,7 +1199,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
@@ -1146,7 +1209,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8">
         <v>43213</v>
       </c>
@@ -1158,7 +1221,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
         <v>2</v>
@@ -1168,7 +1231,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="9"/>
       <c r="B17" s="7" t="s">
         <v>3</v>
@@ -1178,7 +1241,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="8">
         <v>43214</v>
       </c>
@@ -1190,7 +1253,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="7" t="s">
         <v>2</v>
@@ -1200,7 +1263,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="7" t="s">
         <v>3</v>
@@ -1210,7 +1273,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="8">
         <v>43215</v>
       </c>
@@ -1222,7 +1285,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
         <v>2</v>
@@ -1232,7 +1295,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="7" t="s">
         <v>3</v>
@@ -1256,6 +1319,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>push-up: 20 x 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -234,11 +242,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -278,9 +290,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -552,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1020,7 +1036,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1120,30 +1136,54 @@
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -242,11 +250,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -290,13 +300,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -568,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1036,7 +1048,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1192,30 +1204,54 @@
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="8">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,11 +250,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -300,15 +304,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -580,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,7 +1056,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1260,30 +1268,54 @@
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,11 +250,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,19 +306,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -588,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,7 +1060,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1324,30 +1328,54 @@
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="9"/>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="5">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="8">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,11 +250,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,7 +308,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -314,6 +316,7 @@
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -321,6 +324,7 @@
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -592,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,7 +1064,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1384,30 +1388,54 @@
       <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="8">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>push-up: 20 x 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -250,11 +262,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,7 +326,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="24">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -317,6 +335,9 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -325,6 +346,9 @@
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -596,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1064,7 +1088,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1444,30 +1468,54 @@
       <c r="B21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="5">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="3" r:id="rId2"/>
+    <sheet name="第三周" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,6 +111,18 @@
   </si>
   <si>
     <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被青春撞了一下腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +275,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -289,8 +302,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -303,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,7 +346,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="28">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -338,6 +358,8 @@
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -349,6 +371,8 @@
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -620,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,17 +668,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -669,7 +693,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>43202</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -689,7 +713,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +731,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -725,7 +749,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>43203</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -745,7 +769,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -763,7 +787,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -781,7 +805,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>43204</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -801,7 +825,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +843,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -837,7 +861,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>43205</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -857,7 +881,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -875,7 +899,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -893,7 +917,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>43206</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -913,7 +937,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -931,7 +955,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -949,7 +973,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>43207</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -969,7 +993,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
@@ -987,7 +1011,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1029,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>43208</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1025,7 +1049,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1067,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
@@ -1101,17 +1125,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1150,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>43209</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1146,7 +1170,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1188,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1206,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>43210</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1202,7 +1226,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1244,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1262,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>43211</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1258,7 +1282,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1300,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1318,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>43212</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1314,7 +1338,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +1356,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1374,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>43213</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1370,7 +1394,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -1388,7 +1412,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1430,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>43214</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1426,7 +1450,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1468,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1486,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>43215</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1482,7 +1506,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1524,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1516,6 +1540,346 @@
       <c r="F23" s="5" t="s">
         <v>21</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="20.5" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="17">
+      <c r="A3" s="9">
+        <v>43216</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="17">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="9">
+        <v>43217</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="9">
+        <v>43218</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="9">
+        <v>43219</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="9">
+        <v>43220</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="9">
+        <v>43222</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/01.日常记录/01.每日体能训练记录.xlsx
+++ b/01.日常记录/01.每日体能训练记录.xlsx
@@ -10,6 +10,7 @@
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="3" r:id="rId2"/>
     <sheet name="第三周" sheetId="5" r:id="rId3"/>
+    <sheet name="第四周" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,7 +123,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>push-up: 20 x 1</t>
+    <t>push-up: 20 x 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月4日补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push-up: 20 x 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日补</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +231,13 @@
       <color theme="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -306,8 +346,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -327,6 +391,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,8 +415,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="52">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -360,6 +433,18 @@
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -373,6 +458,18 @@
     <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -668,17 +765,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -693,7 +790,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>43202</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -713,7 +810,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,7 +828,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -749,7 +846,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>43203</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -769,7 +866,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -787,7 +884,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -805,7 +902,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>43204</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -825,7 +922,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -843,7 +940,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -861,7 +958,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>43205</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -881,7 +978,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -899,7 +996,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -917,7 +1014,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>43206</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -937,7 +1034,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -955,7 +1052,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -973,7 +1070,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>43207</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -993,7 +1090,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1108,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1126,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>43208</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1049,7 +1146,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1164,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1125,17 +1222,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1247,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>43209</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1170,7 +1267,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1188,7 +1285,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1206,7 +1303,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>43210</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1226,7 +1323,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1244,7 +1341,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1359,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>43211</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1282,7 +1379,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1397,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1415,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>43212</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1338,7 +1435,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1356,7 +1453,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1471,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>43213</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1394,7 +1491,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -1412,7 +1509,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1527,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>43214</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1450,7 +1547,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1565,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1583,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>43215</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1506,7 +1603,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1621,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1566,10 +1663,468 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="20.5" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="17">
+      <c r="A3" s="11">
+        <v>43216</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="17">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="11">
+        <v>43217</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="11">
+        <v>43218</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="A12" s="11">
+        <v>43219</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="11">
+        <v>43220</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>90</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="11">
+        <v>43221</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>120</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="15">
+      <c r="A21" s="11">
+        <v>43222</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="H23" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H6:H23"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1580,19 +2135,19 @@
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="20.5" customHeight="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1606,158 +2161,173 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="17">
-      <c r="A3" s="9">
-        <v>43216</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="17">
+      <c r="A3" s="11">
+        <v>43223</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.5" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="11">
+        <v>43224</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="11">
+        <v>43225</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="17">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.5" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="9">
-        <v>43217</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="9">
-        <v>43218</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="9">
-        <v>43219</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="11">
+        <v>43226</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="5"/>
@@ -1765,9 +2335,9 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="5"/>
@@ -1775,9 +2345,9 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5"/>
@@ -1785,11 +2355,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="9">
-        <v>43220</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="11">
+        <v>43227</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="5"/>
@@ -1797,9 +2367,9 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="5"/>
@@ -1808,8 +2378,8 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5"/>
@@ -1818,10 +2388,10 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="9">
-        <v>43221</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="11">
+        <v>43228</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5"/>
@@ -1830,8 +2400,8 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="5"/>
@@ -1840,8 +2410,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5"/>
@@ -1850,10 +2420,10 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="9">
-        <v>43222</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="11">
+        <v>43229</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="5"/>
@@ -1862,8 +2432,8 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="5"/>
@@ -1872,8 +2442,8 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
